--- a/Research/lib/ข้อมูลKeras.xlsx
+++ b/Research/lib/ข้อมูลKeras.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ชื่อคำสั่ง</t>
   </si>
@@ -36,6 +36,18 @@
   </si>
   <si>
     <t>Ceras</t>
+  </si>
+  <si>
+    <t>Sequential</t>
+  </si>
+  <si>
+    <t>ใช้ในการส้ราง model แบบ Sequential</t>
+  </si>
+  <si>
+    <t>model  = Sequential([ ])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ต้องกำหนดค่า Dense + input_Shape </t>
   </si>
 </sst>
 </file>
@@ -394,9 +406,9 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="22.875" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="49.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -422,10 +434,18 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
